--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="H2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="I2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="J2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.842817666666667</v>
+        <v>1.363346333333333</v>
       </c>
       <c r="N2">
-        <v>14.528453</v>
+        <v>4.090039</v>
       </c>
       <c r="O2">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="P2">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="Q2">
-        <v>102.1802629640969</v>
+        <v>5.125823198798889</v>
       </c>
       <c r="R2">
-        <v>919.6223666768722</v>
+        <v>46.13240878918999</v>
       </c>
       <c r="S2">
-        <v>0.02371406703761016</v>
+        <v>0.001661792425302043</v>
       </c>
       <c r="T2">
-        <v>0.02371406703761016</v>
+        <v>0.001661792425302043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="H3">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="I3">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="J3">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>114.366928</v>
       </c>
       <c r="O3">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="P3">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="Q3">
-        <v>804.3556170389191</v>
+        <v>143.3298442185422</v>
       </c>
       <c r="R3">
-        <v>7239.200553350272</v>
+        <v>1289.96859796688</v>
       </c>
       <c r="S3">
-        <v>0.1866754153024781</v>
+        <v>0.04646755071417757</v>
       </c>
       <c r="T3">
-        <v>0.1866754153024782</v>
+        <v>0.04646755071417757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="H4">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="I4">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="J4">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>16.60982066666667</v>
       </c>
       <c r="N4">
-        <v>49.829462</v>
+        <v>49.82946200000001</v>
       </c>
       <c r="O4">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="P4">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="Q4">
-        <v>350.4562757314543</v>
+        <v>62.44855178722445</v>
       </c>
       <c r="R4">
-        <v>3154.106481583088</v>
+        <v>562.03696608502</v>
       </c>
       <c r="S4">
-        <v>0.08133413807485546</v>
+        <v>0.02024582712010228</v>
       </c>
       <c r="T4">
-        <v>0.08133413807485547</v>
+        <v>0.02024582712010228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>107.458313</v>
       </c>
       <c r="I5">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="J5">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.842817666666667</v>
+        <v>1.363346333333333</v>
       </c>
       <c r="N5">
-        <v>14.528453</v>
+        <v>4.090039</v>
       </c>
       <c r="O5">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="P5">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="Q5">
-        <v>173.4670055421988</v>
+        <v>48.83429900491188</v>
       </c>
       <c r="R5">
-        <v>1561.203049879789</v>
+        <v>439.508691044207</v>
       </c>
       <c r="S5">
-        <v>0.04025834421356495</v>
+        <v>0.01583208492253767</v>
       </c>
       <c r="T5">
-        <v>0.04025834421356495</v>
+        <v>0.01583208492253767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>107.458313</v>
       </c>
       <c r="I6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="J6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>114.366928</v>
       </c>
       <c r="O6">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="P6">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="Q6">
         <v>1365.519682874718</v>
@@ -818,10 +818,10 @@
         <v>12289.67714587247</v>
       </c>
       <c r="S6">
-        <v>0.3169107649707783</v>
+        <v>0.4427016261766088</v>
       </c>
       <c r="T6">
-        <v>0.3169107649707784</v>
+        <v>0.4427016261766087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>107.458313</v>
       </c>
       <c r="I7">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="J7">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>16.60982066666667</v>
       </c>
       <c r="N7">
-        <v>49.829462</v>
+        <v>49.82946200000001</v>
       </c>
       <c r="O7">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="P7">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="Q7">
         <v>594.9544360241784</v>
@@ -880,10 +880,10 @@
         <v>5354.589924217606</v>
       </c>
       <c r="S7">
-        <v>0.1380774424622329</v>
+        <v>0.1928842913303183</v>
       </c>
       <c r="T7">
-        <v>0.1380774424622329</v>
+        <v>0.1928842913303183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>46.22309</v>
       </c>
       <c r="I8">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="J8">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.842817666666667</v>
+        <v>1.363346333333333</v>
       </c>
       <c r="N8">
-        <v>14.528453</v>
+        <v>4.090039</v>
       </c>
       <c r="O8">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="P8">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="Q8">
-        <v>74.61666561997444</v>
+        <v>21.00602675561222</v>
       </c>
       <c r="R8">
-        <v>671.54999057977</v>
+        <v>189.05424080051</v>
       </c>
       <c r="S8">
-        <v>0.01731708804915439</v>
+        <v>0.006810156104554718</v>
       </c>
       <c r="T8">
-        <v>0.01731708804915439</v>
+        <v>0.006810156104554717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>46.22309</v>
       </c>
       <c r="I9">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="J9">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>114.366928</v>
       </c>
       <c r="O9">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="P9">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="Q9">
         <v>587.3769784408355</v>
@@ -1004,10 +1004,10 @@
         <v>5286.39280596752</v>
       </c>
       <c r="S9">
-        <v>0.1363188607959361</v>
+        <v>0.1904276787772366</v>
       </c>
       <c r="T9">
-        <v>0.1363188607959361</v>
+        <v>0.1904276787772365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>46.22309</v>
       </c>
       <c r="I10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="J10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>16.60982066666667</v>
       </c>
       <c r="N10">
-        <v>49.829462</v>
+        <v>49.82946200000001</v>
       </c>
       <c r="O10">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="P10">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="Q10">
         <v>255.9190785197311</v>
@@ -1066,10 +1066,10 @@
         <v>2303.27170667758</v>
       </c>
       <c r="S10">
-        <v>0.05939387909338956</v>
+        <v>0.08296899242916202</v>
       </c>
       <c r="T10">
-        <v>0.05939387909338956</v>
+        <v>0.082968992429162</v>
       </c>
     </row>
   </sheetData>
